--- a/biology/Biologie cellulaire et moléculaire/Glucane/Glucane.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Glucane/Glucane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un glucane est un polysaccharide (polymère d'oses) composé exclusivement de monomères de glucose. Ils peuvent être linéaires ou ramifiés.
-Les glucanes sont des composés albumineux dont certains types (anciennement nommés leucosines) servent de réserve vacuolaire chez quelques groupes d'algues, notamment les Ochrophytes[1]. Elles sont aussi présentes dans diverses céréales, comme le blé[2].
+Les glucanes sont des composés albumineux dont certains types (anciennement nommés leucosines) servent de réserve vacuolaire chez quelques groupes d'algues, notamment les Ochrophytes. Elles sont aussi présentes dans diverses céréales, comme le blé.
 </t>
         </is>
       </c>
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>α-glucanes
-Amidon, α-1,4- et α-1,6-glucane
+          <t>α-glucanes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Amidon, α-1,4- et α-1,6-glucane
 Amylopectine, α-1,4- et α-1,6-glucane
 Amylose, α-1,4-glucane
 Dextrane, α-1,6-glucane
 Glycogène, α-1,4- et α-1,6-glucane
-Pullulane, α-1,4- et α-1,6-glucane
-β-glucanes
-Les β-glucanes sont des fibres alimentaires visqueuses, fermentescibles et solubles qu'on trouve naturellement dans l'avoine, l'orge, les champignons, les levures, les bactéries et les algues[3].
+Pullulane, α-1,4- et α-1,6-glucane</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Glucane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différents types de glucanes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>β-glucanes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les β-glucanes sont des fibres alimentaires visqueuses, fermentescibles et solubles qu'on trouve naturellement dans l'avoine, l'orge, les champignons, les levures, les bactéries et les algues.
 Bêta-glucane d'avoine, β-1,3- et β-1,4-glucane
 Cellulose, β-1,4-glucane
 Chrysolaminarine (en), β-1,3-glucan
